--- a/template/deposit/account.xlsx
+++ b/template/deposit/account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\repo\utils\template\deposit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFAA099-F64E-4D39-8EB2-167995C7D065}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CD2B69-83CB-430C-BC65-9814D8DDCDB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$M$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -37,56 +37,52 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>余额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月均</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>季均</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年均</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户日期1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户日期2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>余额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>月均</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>季均</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年均</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户日期1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户日期2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -466,16 +462,16 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -487,19 +483,19 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
